--- a/src/test/resources/ExcelSheet/Admin.xlsx
+++ b/src/test/resources/ExcelSheet/Admin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\K.Lakshmy\newtokyo\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A4541-AEB9-4E08-A083-76E8638913A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A26A34-9CFA-4290-B903-BB23380F2630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserAdd" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="logindata " sheetId="20" r:id="rId12"/>
     <sheet name="paygradedata" sheetId="21" r:id="rId13"/>
     <sheet name="AddEmployementData" sheetId="22" r:id="rId14"/>
+    <sheet name="AddEntitlementData" sheetId="23" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>userName</t>
   </si>
@@ -247,7 +248,7 @@
     <t>payGrade_name</t>
   </si>
   <si>
-    <t xml:space="preserve">NAME </t>
+    <t>empStatus_name</t>
   </si>
 </sst>
 </file>
@@ -809,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C144C9-2C47-481A-99B5-3068FD8E00C3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -836,10 +837,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAADC973-7FAD-4E1E-ABD4-5D636D25E0BE}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -857,7 +858,24 @@
         <v>64</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A42403-6AC6-45B6-93DC-D756315AEFFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
